--- a/sst.xlsx
+++ b/sst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12. Rohit POC\5. binance\4. stock market\sst_stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85319B35-E65B-4F70-952C-05D21C4E9D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290AA86-950A-4C4E-A338-D5DAA82F64CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="125">
   <si>
     <t>SYMBOL</t>
   </si>
@@ -828,7 +828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A99"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4004,10 +4006,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4022,22 +4024,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/sst.xlsx
+++ b/sst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\12. Rohit POC\5. binance\4. stock market\sst_stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290AA86-950A-4C4E-A338-D5DAA82F64CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA627B0-65BB-4ADD-92C2-8406B706F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A99"/>
     </sheetView>
   </sheetViews>
@@ -3525,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,7 +4024,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/sst.xlsx
+++ b/sst.xlsx
@@ -19,8 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -144,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -168,9 +169,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +571,7 @@
   </sheetPr>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -640,7 +642,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3487.95</v>
+        <v>3589.2</v>
       </c>
       <c r="C2" t="n">
         <v>3270</v>
@@ -657,7 +659,7 @@
         <v>3650.95</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>3461.35</v>
@@ -670,7 +672,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2228.55</v>
+        <v>2290.1</v>
       </c>
       <c r="C3" t="n">
         <v>2207</v>
@@ -686,8 +688,8 @@
       <c r="F3" s="10" t="n">
         <v>2408.7</v>
       </c>
-      <c r="G3" t="n">
-        <v>8</v>
+      <c r="G3" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>2207</v>
@@ -705,7 +707,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8366.4</v>
+        <v>8622.700000000001</v>
       </c>
       <c r="C4" t="n">
         <v>7856.05</v>
@@ -721,8 +723,8 @@
       <c r="F4" t="n">
         <v>9050</v>
       </c>
-      <c r="G4" t="n">
-        <v>8</v>
+      <c r="G4" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>8325</v>
@@ -735,14 +737,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2648.5</v>
+        <v>2778.65</v>
       </c>
       <c r="C5" t="n">
-        <v>2591.45</v>
+        <v>2625</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -751,11 +753,11 @@
       <c r="F5" t="n">
         <v>2817.95</v>
       </c>
-      <c r="G5" t="n">
-        <v>6</v>
+      <c r="G5" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2630.75</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="6">
@@ -765,7 +767,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1473.7</v>
+        <v>1517.8</v>
       </c>
       <c r="C6" t="n">
         <v>1435</v>
@@ -779,10 +781,10 @@
         <v>1576.65</v>
       </c>
       <c r="F6" t="n">
-        <v>1556</v>
+        <v>1550.9</v>
       </c>
       <c r="G6" s="13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>1469.3</v>
@@ -795,27 +797,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2296.8</v>
+        <v>2340.25</v>
       </c>
       <c r="C7" t="n">
-        <v>2290</v>
+        <v>2286.85</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2762</v>
       </c>
       <c r="F7" t="n">
-        <v>2733.1</v>
+        <v>2713.55</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>2290</v>
+        <v>2286.85</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -830,7 +832,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17670.25</v>
+        <v>18187.1</v>
       </c>
       <c r="C8" t="n">
         <v>17429.8</v>
@@ -844,10 +846,10 @@
         <v>20025</v>
       </c>
       <c r="F8" t="n">
-        <v>19515</v>
+        <v>19450</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>17429.8</v>
@@ -865,7 +867,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.25</v>
+        <v>533.85</v>
       </c>
       <c r="C9" t="n">
         <v>474.65</v>
@@ -881,11 +883,11 @@
       <c r="F9" t="n">
         <v>553.85</v>
       </c>
-      <c r="G9" t="n">
-        <v>6</v>
+      <c r="G9" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>519.7</v>
+        <v>513.7</v>
       </c>
     </row>
     <row r="10">
@@ -895,7 +897,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3733.75</v>
+        <v>3817.8</v>
       </c>
       <c r="C10" t="n">
         <v>3625.1</v>
@@ -909,10 +911,10 @@
         <v>4043</v>
       </c>
       <c r="F10" t="n">
-        <v>4043</v>
-      </c>
-      <c r="G10" t="n">
-        <v>8</v>
+        <v>4041.7</v>
+      </c>
+      <c r="G10" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H10" t="n">
         <v>3690</v>
@@ -925,7 +927,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3398</v>
+        <v>3477.9</v>
       </c>
       <c r="C11" t="n">
         <v>3388.05</v>
@@ -939,10 +941,10 @@
         <v>3800.95</v>
       </c>
       <c r="F11" t="n">
-        <v>3712.8</v>
+        <v>3710</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>3388.05</v>
@@ -960,7 +962,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1746.85</v>
+        <v>1813.1</v>
       </c>
       <c r="C12" t="n">
         <v>1737.95</v>
@@ -977,7 +979,7 @@
         <v>1975</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H12" t="n">
         <v>1737.95</v>
@@ -995,7 +997,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>694.3</v>
+        <v>702</v>
       </c>
       <c r="C13" t="n">
         <v>675</v>
@@ -1009,10 +1011,10 @@
         <v>777</v>
       </c>
       <c r="F13" t="n">
-        <v>771.35</v>
+        <v>770</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" t="n">
         <v>684.05</v>
@@ -1025,14 +1027,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>753.7</v>
+        <v>776.05</v>
       </c>
       <c r="C14" t="n">
-        <v>751.15</v>
+        <v>743.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1042,10 +1044,10 @@
         <v>836</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>751.15</v>
+        <v>743.2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1060,27 +1062,27 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1096.3</v>
+        <v>1119.95</v>
       </c>
       <c r="C15" t="n">
-        <v>1090</v>
+        <v>1086.2</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1293.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1293.25</v>
+        <v>1293</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>1090</v>
+        <v>1086.2</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1095,14 +1097,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.85</v>
+        <v>203.45</v>
       </c>
       <c r="C16" t="n">
-        <v>201.05</v>
+        <v>199</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1112,10 +1114,10 @@
         <v>220.2</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>201.25</v>
+        <v>199</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2338.55</v>
+        <v>2417.95</v>
       </c>
       <c r="C17" t="n">
         <v>2305</v>
@@ -1144,10 +1146,10 @@
         <v>2567.3</v>
       </c>
       <c r="F17" t="n">
-        <v>2565</v>
-      </c>
-      <c r="G17" t="n">
-        <v>9</v>
+        <v>2562.35</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>2313</v>
@@ -1160,7 +1162,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1146.45</v>
+        <v>1168.55</v>
       </c>
       <c r="C18" t="n">
         <v>1070.2</v>
@@ -1174,10 +1176,10 @@
         <v>1359.4</v>
       </c>
       <c r="F18" t="n">
-        <v>1273</v>
+        <v>1269.95</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
         <v>1133.6</v>
@@ -1195,14 +1197,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.5</v>
+        <v>135.35</v>
       </c>
       <c r="C19" t="n">
-        <v>131</v>
+        <v>130.65</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-01-24</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1212,10 +1214,15 @@
         <v>144.15</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>131.8</v>
+        <v>130.65</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1225,7 +1232,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.45</v>
+        <v>223</v>
       </c>
       <c r="C20" t="n">
         <v>209.55</v>
@@ -1242,7 +1249,7 @@
         <v>238.5</v>
       </c>
       <c r="G20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
         <v>218.5</v>
@@ -1255,7 +1262,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>825.05</v>
+        <v>854.6</v>
       </c>
       <c r="C21" t="n">
         <v>780.7</v>
@@ -1272,7 +1279,7 @@
         <v>910.1</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H21" t="n">
         <v>780.7</v>
@@ -1290,7 +1297,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3143.45</v>
+        <v>3264.6</v>
       </c>
       <c r="C22" t="n">
         <v>3010.75</v>
@@ -1304,10 +1311,10 @@
         <v>3590</v>
       </c>
       <c r="F22" t="n">
-        <v>3399</v>
-      </c>
-      <c r="G22" t="n">
-        <v>8</v>
+        <v>3396.45</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H22" t="n">
         <v>3120</v>
@@ -1325,27 +1332,27 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2570.8</v>
+        <v>2724</v>
       </c>
       <c r="C23" t="n">
-        <v>2500.35</v>
+        <v>2488.45</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>2880</v>
       </c>
       <c r="F23" t="n">
-        <v>2880</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12</v>
+        <v>2859.3</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>2500.35</v>
+        <v>2488.45</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1360,14 +1367,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>557.3</v>
+        <v>573.6</v>
       </c>
       <c r="C24" t="n">
-        <v>555</v>
+        <v>551.6</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1377,10 +1384,10 @@
         <v>678.8</v>
       </c>
       <c r="G24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H24" t="n">
-        <v>555</v>
+        <v>551.6</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1395,7 +1402,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>864.85</v>
+        <v>876.8</v>
       </c>
       <c r="C25" t="n">
         <v>784.8</v>
@@ -1412,10 +1419,10 @@
         <v>902.85</v>
       </c>
       <c r="G25" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>862.2</v>
+        <v>859.05</v>
       </c>
     </row>
     <row r="26">
@@ -1425,7 +1432,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>541.7</v>
+        <v>563.35</v>
       </c>
       <c r="C26" t="n">
         <v>537.2</v>
@@ -1439,10 +1446,10 @@
         <v>726.8</v>
       </c>
       <c r="F26" t="n">
-        <v>651.65</v>
+        <v>650</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
         <v>540</v>
@@ -1460,7 +1467,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7089.1</v>
+        <v>7290.3</v>
       </c>
       <c r="C27" t="n">
         <v>6950</v>
@@ -1474,13 +1481,13 @@
         <v>7946</v>
       </c>
       <c r="F27" t="n">
-        <v>7946</v>
+        <v>7894</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>7050</v>
+        <v>7031.05</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1497,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>501.4</v>
+        <v>524.8</v>
       </c>
       <c r="C28" t="n">
         <v>488</v>
@@ -1506,11 +1513,11 @@
       <c r="F28" t="n">
         <v>549</v>
       </c>
-      <c r="G28" t="n">
-        <v>9</v>
+      <c r="G28" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>499.7</v>
+        <v>497.1</v>
       </c>
     </row>
     <row r="29">
@@ -1520,7 +1527,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2398</v>
+        <v>2495.9</v>
       </c>
       <c r="C29" t="n">
         <v>2260</v>
@@ -1536,8 +1543,8 @@
       <c r="F29" t="n">
         <v>2635</v>
       </c>
-      <c r="G29" t="n">
-        <v>9</v>
+      <c r="G29" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>2351.25</v>
@@ -1550,14 +1557,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.2</v>
+        <v>164.15</v>
       </c>
       <c r="C30" t="n">
-        <v>162.3</v>
+        <v>156.4</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1567,10 +1574,15 @@
         <v>176.35</v>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>165.15</v>
+        <v>156.4</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1580,7 +1592,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>954.9</v>
+        <v>921.85</v>
       </c>
       <c r="C31" t="n">
         <v>860</v>
@@ -1596,11 +1608,11 @@
       <c r="F31" t="n">
         <v>977.35</v>
       </c>
-      <c r="G31" s="13" t="n">
-        <v>2</v>
+      <c r="G31" t="n">
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>938.85</v>
+        <v>912.3</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1615,7 +1627,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>695.75</v>
+        <v>720.6</v>
       </c>
       <c r="C32" t="n">
         <v>689</v>
@@ -1632,10 +1644,10 @@
         <v>790</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33">
@@ -1645,7 +1657,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>773.35</v>
+        <v>796.95</v>
       </c>
       <c r="C33" t="n">
         <v>688.2</v>
@@ -1662,10 +1674,10 @@
         <v>815.95</v>
       </c>
       <c r="G33" s="13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>769.95</v>
+        <v>764.3</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1687,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4204.6</v>
+        <v>4277.55</v>
       </c>
       <c r="C34" t="n">
         <v>4166.75</v>
@@ -1692,7 +1704,7 @@
         <v>4734.4</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>4166.75</v>
@@ -1710,7 +1722,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1682.2</v>
+        <v>1738.25</v>
       </c>
       <c r="C35" t="n">
         <v>1665</v>
@@ -1724,10 +1736,10 @@
         <v>1953.9</v>
       </c>
       <c r="F35" t="n">
-        <v>1953.9</v>
+        <v>1945</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H35" t="n">
         <v>1678.25</v>
@@ -1745,14 +1757,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1642.95</v>
+        <v>1712.1</v>
       </c>
       <c r="C36" t="n">
-        <v>1635.65</v>
+        <v>1618.05</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1762,10 +1774,10 @@
         <v>1929.8</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H36" t="n">
-        <v>1635.65</v>
+        <v>1618.05</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
@@ -1780,7 +1792,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1799</v>
+        <v>1876.05</v>
       </c>
       <c r="C37" t="n">
         <v>1795</v>
@@ -1797,7 +1809,7 @@
         <v>2078.55</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H37" t="n">
         <v>1795</v>
@@ -1815,7 +1827,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6785.95</v>
+        <v>7142.05</v>
       </c>
       <c r="C38" t="n">
         <v>6708.1</v>
@@ -1832,7 +1844,7 @@
         <v>8045</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H38" t="n">
         <v>6744.05</v>
@@ -1845,14 +1857,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>471.45</v>
+        <v>504</v>
       </c>
       <c r="C39" t="n">
-        <v>467.65</v>
+        <v>467.3</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1861,11 +1873,16 @@
       <c r="F39" t="n">
         <v>528.5</v>
       </c>
-      <c r="G39" t="n">
-        <v>12</v>
+      <c r="G39" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>468.8</v>
+        <v>467.3</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1875,7 +1892,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>626.55</v>
+        <v>640.65</v>
       </c>
       <c r="C40" t="n">
         <v>604.3</v>
@@ -1889,10 +1906,10 @@
         <v>704.85</v>
       </c>
       <c r="F40" t="n">
-        <v>704.85</v>
+        <v>704.55</v>
       </c>
       <c r="G40" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H40" t="n">
         <v>604.3</v>
@@ -1910,7 +1927,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>941.6</v>
+        <v>969.7</v>
       </c>
       <c r="C41" t="n">
         <v>831.55</v>
@@ -1927,10 +1944,10 @@
         <v>990</v>
       </c>
       <c r="G41" s="13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>937.2</v>
+        <v>923.25</v>
       </c>
     </row>
     <row r="42">
@@ -1940,7 +1957,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>721.7</v>
+        <v>744.7</v>
       </c>
       <c r="C42" t="n">
         <v>716</v>
@@ -1954,10 +1971,10 @@
         <v>844.9</v>
       </c>
       <c r="F42" t="n">
-        <v>830.7</v>
+        <v>825</v>
       </c>
       <c r="G42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
         <v>716</v>
@@ -1975,14 +1992,14 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>361.7</v>
+        <v>368.9</v>
       </c>
       <c r="C43" t="n">
-        <v>360.55</v>
+        <v>356.6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1992,10 +2009,10 @@
         <v>406.9</v>
       </c>
       <c r="G43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" t="n">
-        <v>360.55</v>
+        <v>356.6</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2010,7 +2027,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>689.7</v>
+        <v>711.55</v>
       </c>
       <c r="C44" t="n">
         <v>677.35</v>
@@ -2026,8 +2043,8 @@
       <c r="F44" t="n">
         <v>754</v>
       </c>
-      <c r="G44" t="n">
-        <v>9</v>
+      <c r="G44" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H44" t="n">
         <v>685</v>
@@ -2040,14 +2057,14 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>116.55</v>
+        <v>118.75</v>
       </c>
       <c r="C45" t="n">
-        <v>116.15</v>
+        <v>114.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2057,10 +2074,10 @@
         <v>128</v>
       </c>
       <c r="G45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H45" t="n">
-        <v>116.15</v>
+        <v>114.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2075,7 +2092,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1186.85</v>
+        <v>1207.75</v>
       </c>
       <c r="C46" t="n">
         <v>1061.3</v>
@@ -2091,11 +2108,11 @@
       <c r="F46" t="n">
         <v>1264.95</v>
       </c>
-      <c r="G46" t="n">
-        <v>6</v>
+      <c r="G46" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H46" t="n">
-        <v>1180.1</v>
+        <v>1151.55</v>
       </c>
     </row>
     <row r="47">
@@ -2105,7 +2122,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4277.9</v>
+        <v>4325.8</v>
       </c>
       <c r="C47" t="n">
         <v>3788.95</v>
@@ -2119,10 +2136,10 @@
         <v>4708.75</v>
       </c>
       <c r="F47" t="n">
-        <v>4668</v>
+        <v>4640.35</v>
       </c>
       <c r="G47" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H47" t="n">
         <v>4192.05</v>
@@ -2140,7 +2157,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>161.65</v>
+        <v>163.65</v>
       </c>
       <c r="C48" t="n">
         <v>154.3</v>
@@ -2157,10 +2174,10 @@
         <v>170.3</v>
       </c>
       <c r="G48" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>161.15</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="49">
@@ -2170,7 +2187,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>23589.2</v>
+        <v>24909.2</v>
       </c>
       <c r="C49" t="n">
         <v>23500.05</v>
@@ -2184,10 +2201,10 @@
         <v>27936.75</v>
       </c>
       <c r="F49" t="n">
-        <v>27936.75</v>
+        <v>27639.65</v>
       </c>
       <c r="G49" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H49" t="n">
         <v>23511</v>
@@ -2205,7 +2222,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1390.15</v>
+        <v>1439.65</v>
       </c>
       <c r="C50" t="n">
         <v>1371</v>
@@ -2219,10 +2236,10 @@
         <v>1838</v>
       </c>
       <c r="F50" t="n">
-        <v>1751</v>
+        <v>1746.55</v>
       </c>
       <c r="G50" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H50" t="n">
         <v>1371</v>
@@ -2240,7 +2257,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15674.15</v>
+        <v>16375.25</v>
       </c>
       <c r="C51" t="n">
         <v>15012</v>
@@ -2257,7 +2274,7 @@
         <v>18621</v>
       </c>
       <c r="G51" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" t="n">
         <v>15451</v>
@@ -2270,7 +2287,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>393.55</v>
+        <v>403.9</v>
       </c>
       <c r="C52" t="n">
         <v>347</v>
@@ -2287,7 +2304,7 @@
         <v>410.7</v>
       </c>
       <c r="G52" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>392</v>
@@ -2300,7 +2317,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2388.55</v>
+        <v>2448.1</v>
       </c>
       <c r="C53" t="n">
         <v>2365.4</v>
@@ -2317,7 +2334,7 @@
         <v>2737.25</v>
       </c>
       <c r="G53" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H53" t="n">
         <v>2365.4</v>
@@ -2335,7 +2352,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1413.3</v>
+        <v>1425.45</v>
       </c>
       <c r="C54" t="n">
         <v>1375.6</v>
@@ -2352,10 +2369,10 @@
         <v>1489.5</v>
       </c>
       <c r="G54" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
-        <v>1406.05</v>
+        <v>1401.8</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2370,7 +2387,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4486.35</v>
+        <v>4663.4</v>
       </c>
       <c r="C55" t="n">
         <v>4150</v>
@@ -2384,10 +2401,10 @@
         <v>5141.5</v>
       </c>
       <c r="F55" t="n">
-        <v>4984.7</v>
-      </c>
-      <c r="G55" t="n">
-        <v>11</v>
+        <v>4909.9</v>
+      </c>
+      <c r="G55" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="H55" t="n">
         <v>4402.75</v>
@@ -2405,14 +2422,14 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>660</v>
+        <v>671.15</v>
       </c>
       <c r="C56" t="n">
-        <v>587</v>
+        <v>591.9</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2422,10 +2439,10 @@
         <v>698.35</v>
       </c>
       <c r="G56" s="13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>653.5</v>
+        <v>643.55</v>
       </c>
     </row>
     <row r="57">
@@ -2435,14 +2452,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13.25</v>
+        <v>13.5</v>
       </c>
       <c r="C57" t="n">
-        <v>13.1</v>
+        <v>13.05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2452,10 +2469,10 @@
         <v>14.35</v>
       </c>
       <c r="G57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H57" t="n">
-        <v>13.2</v>
+        <v>13.05</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2470,7 +2487,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>699.8</v>
+        <v>722.7</v>
       </c>
       <c r="C58" t="n">
         <v>691.45</v>
@@ -2487,7 +2504,7 @@
         <v>780.9</v>
       </c>
       <c r="G58" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H58" t="n">
         <v>691.45</v>
@@ -2505,7 +2522,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2947.7</v>
+        <v>3144.5</v>
       </c>
       <c r="C59" t="n">
         <v>2890.25</v>
@@ -2519,10 +2536,10 @@
         <v>4032</v>
       </c>
       <c r="F59" t="n">
-        <v>3985</v>
+        <v>3924.9</v>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H59" t="n">
         <v>2890.25</v>
@@ -2540,7 +2557,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>502.6</v>
+        <v>507.1</v>
       </c>
       <c r="C60" t="n">
         <v>499.6</v>
@@ -2557,7 +2574,7 @@
         <v>648.85</v>
       </c>
       <c r="G60" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H60" t="n">
         <v>499.6</v>
@@ -2575,7 +2592,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2092.3</v>
+        <v>2190.6</v>
       </c>
       <c r="C61" t="n">
         <v>1826</v>
@@ -2591,11 +2608,11 @@
       <c r="F61" t="n">
         <v>2282.1</v>
       </c>
-      <c r="G61" t="n">
-        <v>9</v>
+      <c r="G61" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H61" t="n">
-        <v>2082.75</v>
+        <v>2071.55</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -2610,14 +2627,14 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1285.75</v>
+        <v>1295.1</v>
       </c>
       <c r="C62" t="n">
-        <v>1280.25</v>
+        <v>1274</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2630,7 +2647,7 @@
         <v>13</v>
       </c>
       <c r="H62" t="n">
-        <v>1280.25</v>
+        <v>1274</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -2645,7 +2662,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2172.35</v>
+        <v>2201.1</v>
       </c>
       <c r="C63" t="n">
         <v>2118</v>
@@ -2662,7 +2679,7 @@
         <v>2504.95</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" t="n">
         <v>2135</v>
@@ -2675,7 +2692,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>680.4</v>
+        <v>692.45</v>
       </c>
       <c r="C64" t="n">
         <v>590.1</v>
@@ -2692,10 +2709,10 @@
         <v>715</v>
       </c>
       <c r="G64" s="13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
-        <v>643</v>
+        <v>674.05</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2710,7 +2727,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>15375.75</v>
+        <v>15501.8</v>
       </c>
       <c r="C65" t="n">
         <v>14380.05</v>
@@ -2745,14 +2762,14 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1862.15</v>
+        <v>1889.5</v>
       </c>
       <c r="C66" t="n">
-        <v>1698.4</v>
+        <v>1746</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -2762,10 +2779,10 @@
         <v>2051.2</v>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H66" t="n">
-        <v>1804.85</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="67">
@@ -2775,7 +2792,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>310.6</v>
+        <v>326.35</v>
       </c>
       <c r="C67" t="n">
         <v>287.35</v>
@@ -2791,8 +2808,8 @@
       <c r="F67" t="n">
         <v>330.7</v>
       </c>
-      <c r="G67" t="n">
-        <v>6</v>
+      <c r="G67" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>306.35</v>
@@ -2805,7 +2822,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>361.5</v>
+        <v>371.95</v>
       </c>
       <c r="C68" t="n">
         <v>307.2</v>
@@ -2821,11 +2838,11 @@
       <c r="F68" t="n">
         <v>385.85</v>
       </c>
-      <c r="G68" t="n">
-        <v>6</v>
+      <c r="G68" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="H68" t="n">
-        <v>359.6</v>
+        <v>355.45</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2840,7 +2857,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>824</v>
+        <v>838.5</v>
       </c>
       <c r="C69" t="n">
         <v>781.2</v>
@@ -2857,7 +2874,7 @@
         <v>899</v>
       </c>
       <c r="G69" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H69" t="n">
         <v>812.25</v>
@@ -2875,7 +2892,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>813.6</v>
+        <v>851.65</v>
       </c>
       <c r="C70" t="n">
         <v>808.05</v>
@@ -2889,10 +2906,10 @@
         <v>958</v>
       </c>
       <c r="F70" t="n">
-        <v>958</v>
+        <v>956.5</v>
       </c>
       <c r="G70" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H70" t="n">
         <v>808.05</v>
@@ -2910,7 +2927,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>799.75</v>
+        <v>813.75</v>
       </c>
       <c r="C71" t="n">
         <v>794.15</v>
@@ -2927,7 +2944,7 @@
         <v>948</v>
       </c>
       <c r="G71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H71" t="n">
         <v>794.15</v>
@@ -2945,7 +2962,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>553.1</v>
+        <v>562.45</v>
       </c>
       <c r="C72" t="n">
         <v>527.05</v>
@@ -2959,10 +2976,10 @@
         <v>591.25</v>
       </c>
       <c r="F72" t="n">
-        <v>578.45</v>
+        <v>574.45</v>
       </c>
       <c r="G72" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H72" t="n">
         <v>546.25</v>
@@ -2980,7 +2997,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2551.2</v>
+        <v>2592.9</v>
       </c>
       <c r="C73" t="n">
         <v>2530.05</v>
@@ -2997,7 +3014,7 @@
         <v>3233.75</v>
       </c>
       <c r="G73" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H73" t="n">
         <v>2530.05</v>
@@ -3015,7 +3032,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2153.9</v>
+        <v>2234.3</v>
       </c>
       <c r="C74" t="n">
         <v>2120.05</v>
@@ -3032,7 +3049,7 @@
         <v>2392.9</v>
       </c>
       <c r="G74" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H74" t="n">
         <v>2145</v>
@@ -3045,7 +3062,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>355.1</v>
+        <v>363.55</v>
       </c>
       <c r="C75" t="n">
         <v>340.45</v>
@@ -3062,10 +3079,10 @@
         <v>410</v>
       </c>
       <c r="G75" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H75" t="n">
-        <v>354.05</v>
+        <v>353.75</v>
       </c>
     </row>
     <row r="76">
@@ -3075,27 +3092,27 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>382.65</v>
+        <v>387.2</v>
       </c>
       <c r="C76" t="n">
-        <v>380.25</v>
+        <v>379.15</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E76" t="n">
         <v>486.85</v>
       </c>
       <c r="F76" t="n">
-        <v>444</v>
+        <v>439.5</v>
       </c>
       <c r="G76" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H76" t="n">
-        <v>380.7</v>
+        <v>379.15</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3110,7 +3127,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>489.8</v>
+        <v>503.15</v>
       </c>
       <c r="C77" t="n">
         <v>455.65</v>
@@ -3126,8 +3143,8 @@
       <c r="F77" t="n">
         <v>524</v>
       </c>
-      <c r="G77" t="n">
-        <v>6</v>
+      <c r="G77" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="H77" t="n">
         <v>486.6</v>
@@ -3145,14 +3162,14 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2255.4</v>
+        <v>2292.05</v>
       </c>
       <c r="C78" t="n">
-        <v>2236.3</v>
+        <v>2212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3162,10 +3179,10 @@
         <v>2698.25</v>
       </c>
       <c r="G78" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H78" t="n">
-        <v>2236.3</v>
+        <v>2212</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3180,27 +3197,27 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15824.15</v>
+        <v>16046.55</v>
       </c>
       <c r="C79" t="n">
-        <v>15700.05</v>
+        <v>15532.05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v>17929.95</v>
       </c>
       <c r="F79" t="n">
-        <v>17929.95</v>
+        <v>17849.5</v>
       </c>
       <c r="G79" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H79" t="n">
-        <v>15700.05</v>
+        <v>15532.05</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3215,7 +3232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>380.65</v>
+        <v>383.75</v>
       </c>
       <c r="C80" t="n">
         <v>371.55</v>
@@ -3232,7 +3249,7 @@
         <v>464.9</v>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" t="n">
         <v>371.55</v>
@@ -3250,14 +3267,14 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1663.95</v>
+        <v>1744.25</v>
       </c>
       <c r="C81" t="n">
-        <v>1653</v>
+        <v>1627.85</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3267,10 +3284,10 @@
         <v>1908.5</v>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H81" t="n">
-        <v>1653</v>
+        <v>1627.85</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3285,7 +3302,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>152.75</v>
+        <v>149.3</v>
       </c>
       <c r="C82" t="n">
         <v>132.8</v>
@@ -3301,11 +3318,11 @@
       <c r="F82" t="n">
         <v>161.4</v>
       </c>
-      <c r="G82" s="13" t="n">
-        <v>5</v>
+      <c r="G82" t="n">
+        <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>152</v>
+        <v>144.1</v>
       </c>
     </row>
     <row r="83">
@@ -3315,14 +3332,14 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1355.2</v>
+        <v>1354</v>
       </c>
       <c r="C83" t="n">
-        <v>1350</v>
+        <v>1303</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3335,7 +3352,7 @@
         <v>12</v>
       </c>
       <c r="H83" t="n">
-        <v>1350</v>
+        <v>1303</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -3350,14 +3367,14 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>137.55</v>
+        <v>139.25</v>
       </c>
       <c r="C84" t="n">
-        <v>136.3</v>
+        <v>134.15</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3367,10 +3384,10 @@
         <v>151.95</v>
       </c>
       <c r="G84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H84" t="n">
-        <v>136.3</v>
+        <v>134.15</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3385,7 +3402,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5147.75</v>
+        <v>5178.35</v>
       </c>
       <c r="C85" t="n">
         <v>5000</v>
@@ -3402,7 +3419,7 @@
         <v>5587</v>
       </c>
       <c r="G85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H85" t="n">
         <v>5051</v>
@@ -3415,7 +3432,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>96.15000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C86" t="n">
         <v>94.15000000000001</v>
@@ -3429,13 +3446,13 @@
         <v>113.65</v>
       </c>
       <c r="F86" t="n">
-        <v>108.5</v>
+        <v>108.1</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H86" t="n">
-        <v>95.5</v>
+        <v>94.3</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -3450,7 +3467,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2330.4</v>
+        <v>2421.3</v>
       </c>
       <c r="C87" t="n">
         <v>2176.25</v>
@@ -3466,11 +3483,11 @@
       <c r="F87" t="n">
         <v>2498</v>
       </c>
-      <c r="G87" t="n">
-        <v>7</v>
+      <c r="G87" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="H87" t="n">
-        <v>2321.1</v>
+        <v>2315.45</v>
       </c>
     </row>
     <row r="88">
@@ -3480,7 +3497,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>247.2</v>
+        <v>256.85</v>
       </c>
       <c r="C88" t="n">
         <v>243.3</v>
@@ -3497,7 +3514,7 @@
         <v>275</v>
       </c>
       <c r="G88" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H88" t="n">
         <v>245.05</v>
@@ -3510,14 +3527,14 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>37.1</v>
+        <v>38.4</v>
       </c>
       <c r="C89" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3527,10 +3544,10 @@
         <v>43.35</v>
       </c>
       <c r="G89" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H89" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -3545,14 +3562,14 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>355.05</v>
+        <v>371.55</v>
       </c>
       <c r="C90" t="n">
-        <v>352.4</v>
+        <v>347.75</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3562,10 +3579,10 @@
         <v>429.9</v>
       </c>
       <c r="G90" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H90" t="n">
-        <v>352.4</v>
+        <v>347.75</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3580,7 +3597,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>407.65</v>
+        <v>415.7</v>
       </c>
       <c r="C91" t="n">
         <v>361.15</v>
@@ -3597,10 +3614,10 @@
         <v>444.8</v>
       </c>
       <c r="G91" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H91" t="n">
-        <v>402.5</v>
+        <v>393</v>
       </c>
     </row>
     <row r="92">
@@ -3610,7 +3627,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5885.35</v>
+        <v>6102.65</v>
       </c>
       <c r="C92" t="n">
         <v>5670.1</v>
@@ -3627,7 +3644,7 @@
         <v>7158.8</v>
       </c>
       <c r="G92" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H92" t="n">
         <v>5670.1</v>
@@ -3645,14 +3662,14 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>761.35</v>
+        <v>764.2</v>
       </c>
       <c r="C93" t="n">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3662,10 +3679,10 @@
         <v>969.35</v>
       </c>
       <c r="G93" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H93" t="n">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3680,7 +3697,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2540.95</v>
+        <v>2608.6</v>
       </c>
       <c r="C94" t="n">
         <v>2333.55</v>
@@ -3694,10 +3711,10 @@
         <v>3108</v>
       </c>
       <c r="F94" t="n">
-        <v>2819.25</v>
+        <v>2814.9</v>
       </c>
       <c r="G94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94" t="n">
         <v>2460</v>
@@ -3715,7 +3732,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>106.1</v>
+        <v>110.15</v>
       </c>
       <c r="C95" t="n">
         <v>90.7</v>
@@ -3732,10 +3749,10 @@
         <v>118.8</v>
       </c>
       <c r="G95" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
-        <v>105.25</v>
+        <v>104.05</v>
       </c>
     </row>
     <row r="96">
@@ -3745,7 +3762,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3979.75</v>
+        <v>4081.75</v>
       </c>
       <c r="C96" t="n">
         <v>3881.25</v>
@@ -3762,7 +3779,7 @@
         <v>4517</v>
       </c>
       <c r="G96" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H96" t="n">
         <v>3958.05</v>
@@ -3775,7 +3792,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>289.75</v>
+        <v>295.5</v>
       </c>
       <c r="C97" t="n">
         <v>278.55</v>
@@ -3792,10 +3809,10 @@
         <v>332.2</v>
       </c>
       <c r="G97" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H97" t="n">
-        <v>288.15</v>
+        <v>282.55</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -3810,7 +3827,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4511.4</v>
+        <v>4682.55</v>
       </c>
       <c r="C98" t="n">
         <v>4285.05</v>
@@ -3824,10 +3841,10 @@
         <v>5761.65</v>
       </c>
       <c r="F98" t="n">
-        <v>5761.65</v>
+        <v>5690</v>
       </c>
       <c r="G98" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H98" t="n">
         <v>4302.5</v>
@@ -3845,7 +3862,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1156.05</v>
+        <v>1189.8</v>
       </c>
       <c r="C99" t="n">
         <v>1117</v>
@@ -3859,13 +3876,13 @@
         <v>1419</v>
       </c>
       <c r="F99" t="n">
-        <v>1343.95</v>
+        <v>1341.5</v>
       </c>
       <c r="G99" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H99" t="n">
-        <v>1141.6</v>
+        <v>1141</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3887,7 +3904,7 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3952,15 +3969,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2540.95</v>
+        <v>2608.6</v>
       </c>
       <c r="C2" t="n">
-        <v>2819.25</v>
+        <v>2814.9</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3969,21 +3985,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>954.9</v>
+        <v>921.85</v>
       </c>
       <c r="C3" t="n">
         <v>977.35</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>44606</v>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F3" t="n">
         <v>977.35</v>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3992,19 +4007,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>553.1</v>
+        <v>562.45</v>
       </c>
       <c r="C4" t="n">
-        <v>578.45</v>
+        <v>574.45</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>44606</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F4" t="n">
-        <v>584.2</v>
+        <v>574.45</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -4019,15 +4034,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2255.4</v>
+        <v>2292.05</v>
       </c>
       <c r="C5" t="n">
         <v>2698.25</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4036,7 +4050,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1355.2</v>
+        <v>1354</v>
       </c>
       <c r="C6" t="n">
         <v>1518.9</v>
@@ -4044,7 +4058,6 @@
       <c r="D6" t="n">
         <v>12</v>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4053,15 +4066,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1156.05</v>
+        <v>1189.8</v>
       </c>
       <c r="C7" t="n">
-        <v>1343.95</v>
+        <v>1341.5</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4070,15 +4082,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4511.4</v>
+        <v>4682.55</v>
       </c>
       <c r="C8" t="n">
-        <v>5761.65</v>
+        <v>5690</v>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4087,15 +4098,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1390.15</v>
+        <v>1439.65</v>
       </c>
       <c r="C9" t="n">
-        <v>1751</v>
+        <v>1746.55</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4104,15 +4114,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3143.45</v>
+        <v>3264.6</v>
       </c>
       <c r="C10" t="n">
-        <v>3399</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>3396.45</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>44607</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3396.45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4121,15 +4136,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96.15000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="C11" t="n">
-        <v>108.5</v>
+        <v>108.1</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4138,21 +4152,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.5</v>
+        <v>371.95</v>
       </c>
       <c r="C12" t="n">
         <v>385.85</v>
       </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>44606</v>
+      <c r="D12" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F12" t="n">
         <v>385.85</v>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4161,21 +4174,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.8</v>
+        <v>503.15</v>
       </c>
       <c r="C13" t="n">
         <v>524</v>
       </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12" t="n">
-        <v>44606</v>
+      <c r="D13" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F13" t="n">
         <v>524</v>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4184,21 +4196,20 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1413.3</v>
+        <v>1425.45</v>
       </c>
       <c r="C14" t="n">
         <v>1489.5</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>44606</v>
+        <v>4</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F14" t="n">
         <v>1489.5</v>
       </c>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4207,15 +4218,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>824</v>
+        <v>838.5</v>
       </c>
       <c r="C15" t="n">
         <v>899</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4224,7 +4234,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1285.75</v>
+        <v>1295.1</v>
       </c>
       <c r="C16" t="n">
         <v>1465</v>
@@ -4232,7 +4242,6 @@
       <c r="D16" t="n">
         <v>13</v>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4241,15 +4250,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17670.25</v>
+        <v>18187.1</v>
       </c>
       <c r="C17" t="n">
-        <v>19515</v>
+        <v>19450</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4258,15 +4266,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2228.55</v>
+        <v>2290.1</v>
       </c>
       <c r="C18" t="n">
         <v>2408.7</v>
       </c>
-      <c r="D18" t="n">
-        <v>8</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="D18" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>44607</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2408.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4275,15 +4288,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>541.7</v>
+        <v>563.35</v>
       </c>
       <c r="C19" t="n">
-        <v>651.65</v>
+        <v>650</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4292,15 +4304,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1682.2</v>
+        <v>1738.25</v>
       </c>
       <c r="C20" t="n">
-        <v>1953.9</v>
+        <v>1945</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4309,15 +4320,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>799.75</v>
+        <v>813.75</v>
       </c>
       <c r="C21" t="n">
         <v>948</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4326,15 +4336,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23589.2</v>
+        <v>24909.2</v>
       </c>
       <c r="C22" t="n">
-        <v>27936.75</v>
+        <v>27639.65</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4343,15 +4352,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1146.45</v>
+        <v>1168.55</v>
       </c>
       <c r="C23" t="n">
-        <v>1273</v>
+        <v>1269.95</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4360,15 +4368,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4204.6</v>
+        <v>4277.55</v>
       </c>
       <c r="C24" t="n">
         <v>4734.4</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4377,15 +4384,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4486.35</v>
+        <v>4663.4</v>
       </c>
       <c r="C25" t="n">
-        <v>4984.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>4909.9</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>44607</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4909.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4394,15 +4406,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4277.9</v>
+        <v>4325.8</v>
       </c>
       <c r="C26" t="n">
-        <v>4668</v>
+        <v>4640.35</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4411,15 +4422,14 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>761.35</v>
+        <v>764.2</v>
       </c>
       <c r="C27" t="n">
         <v>969.35</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
-      </c>
-      <c r="H27" t="inlineStr"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4428,15 +4438,14 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5885.35</v>
+        <v>6102.65</v>
       </c>
       <c r="C28" t="n">
         <v>7158.8</v>
       </c>
       <c r="D28" t="n">
-        <v>21</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4445,21 +4454,20 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13.25</v>
+        <v>13.5</v>
       </c>
       <c r="C29" t="n">
         <v>14.35</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
-      </c>
-      <c r="E29" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" s="11" t="n">
         <v>44606</v>
       </c>
       <c r="F29" t="n">
         <v>14.35</v>
       </c>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4468,15 +4476,14 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>557.3</v>
+        <v>573.6</v>
       </c>
       <c r="C30" t="n">
         <v>678.8</v>
       </c>
       <c r="D30" t="n">
-        <v>21</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4485,21 +4492,20 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2092.3</v>
+        <v>2190.6</v>
       </c>
       <c r="C31" t="n">
         <v>2282.1</v>
       </c>
-      <c r="D31" t="n">
-        <v>9</v>
-      </c>
-      <c r="E31" s="12" t="n">
-        <v>44606</v>
+      <c r="D31" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <v>44607</v>
       </c>
       <c r="F31" t="n">
         <v>2282.1</v>
       </c>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4508,15 +4514,14 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2551.2</v>
+        <v>2592.9</v>
       </c>
       <c r="C32" t="n">
         <v>3233.75</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4525,15 +4530,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>289.75</v>
+        <v>295.5</v>
       </c>
       <c r="C33" t="n">
         <v>332.2</v>
       </c>
       <c r="D33" t="n">
-        <v>14</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4542,15 +4546,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2388.55</v>
+        <v>2448.1</v>
       </c>
       <c r="C34" t="n">
         <v>2737.25</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4559,7 +4562,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15375.75</v>
+        <v>15501.8</v>
       </c>
       <c r="C35" t="n">
         <v>16448.7</v>
@@ -4567,7 +4570,6 @@
       <c r="D35" t="n">
         <v>6</v>
       </c>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4576,15 +4578,14 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>361.7</v>
+        <v>368.9</v>
       </c>
       <c r="C36" t="n">
         <v>406.9</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4593,15 +4594,14 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>502.6</v>
+        <v>507.1</v>
       </c>
       <c r="C37" t="n">
         <v>648.85</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4610,15 +4610,14 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2296.8</v>
+        <v>2340.25</v>
       </c>
       <c r="C38" t="n">
-        <v>2733.1</v>
+        <v>2713.55</v>
       </c>
       <c r="D38" t="n">
-        <v>18</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4627,15 +4626,14 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37.1</v>
+        <v>38.4</v>
       </c>
       <c r="C39" t="n">
         <v>43.35</v>
       </c>
       <c r="D39" t="n">
-        <v>16</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4644,15 +4642,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>626.55</v>
+        <v>640.65</v>
       </c>
       <c r="C40" t="n">
-        <v>704.85</v>
+        <v>704.55</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4661,15 +4658,20 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2570.8</v>
+        <v>2724</v>
       </c>
       <c r="C41" t="n">
-        <v>2880</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
+        <v>2859.3</v>
+      </c>
+      <c r="D41" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>44607</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2859.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4678,15 +4680,14 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1746.85</v>
+        <v>1813.1</v>
       </c>
       <c r="C42" t="n">
         <v>1975</v>
       </c>
       <c r="D42" t="n">
-        <v>13</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4695,236 +4696,228 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>721.7</v>
+        <v>744.7</v>
       </c>
       <c r="C43" t="n">
-        <v>830.7</v>
+        <v>825</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>BOSCHLTD</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2947.7</v>
+        <v>16046.55</v>
       </c>
       <c r="C44" t="n">
-        <v>3985</v>
+        <v>17849.5</v>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GRASIM</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1642.95</v>
+        <v>3477.9</v>
       </c>
       <c r="C45" t="n">
-        <v>1929.8</v>
+        <v>3710</v>
       </c>
       <c r="D45" t="n">
-        <v>17</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BOSCHLTD</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15824.15</v>
+        <v>1876.05</v>
       </c>
       <c r="C46" t="n">
-        <v>17929.95</v>
+        <v>2078.55</v>
       </c>
       <c r="D46" t="n">
-        <v>13</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>GAIL</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3398</v>
+        <v>139.25</v>
       </c>
       <c r="C47" t="n">
-        <v>3712.8</v>
+        <v>151.95</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
       </c>
-      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>DLF</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1096.3</v>
+        <v>371.55</v>
       </c>
       <c r="C48" t="n">
-        <v>1293.25</v>
+        <v>429.9</v>
       </c>
       <c r="D48" t="n">
-        <v>17</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>MCDOWELL-N</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1799</v>
+        <v>851.65</v>
       </c>
       <c r="C49" t="n">
-        <v>2078.55</v>
+        <v>956.5</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GAIL</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>137.55</v>
+        <v>1744.25</v>
       </c>
       <c r="C50" t="n">
-        <v>151.95</v>
+        <v>1908.5</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DLF</t>
+          <t>ICICIBANK</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>355.05</v>
+        <v>776.05</v>
       </c>
       <c r="C51" t="n">
-        <v>429.9</v>
+        <v>836</v>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M&amp;M</t>
+          <t>ONGC</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>825.05</v>
+        <v>164.15</v>
       </c>
       <c r="C52" t="n">
-        <v>910.1</v>
+        <v>176.35</v>
       </c>
       <c r="D52" t="n">
-        <v>10</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MCDOWELL-N</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>813.6</v>
+        <v>504</v>
       </c>
       <c r="C53" t="n">
-        <v>958</v>
-      </c>
-      <c r="D53" t="n">
-        <v>17</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
+        <v>528.5</v>
+      </c>
+      <c r="D53" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="n">
+        <v>44607</v>
+      </c>
+      <c r="F53" t="n">
+        <v>528.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IOC</t>
+          <t>BERGEPAINT</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>116.55</v>
+        <v>722.7</v>
       </c>
       <c r="C54" t="n">
-        <v>128</v>
+        <v>780.9</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>CADILAHC</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1663.95</v>
+        <v>387.2</v>
       </c>
       <c r="C55" t="n">
-        <v>1908.5</v>
+        <v>439.5</v>
       </c>
       <c r="D55" t="n">
-        <v>14</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>NTPC</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>753.7</v>
+        <v>135.35</v>
       </c>
       <c r="C56" t="n">
-        <v>836</v>
+        <v>144.15</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
-      </c>
-      <c r="H56" t="inlineStr"/>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4937,10 +4930,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4994,252 +4987,756 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMARAJABAT</t>
+          <t>AFFLE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>689.25</t>
+          <t>1161.65</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>607.85</t>
+          <t>1185.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>193904.15</t>
+          <t>16599.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-25966.6</t>
+          <t>336</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-11.81</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>AMARAJABAT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>584.9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>367.9</t>
+          <t>591.8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4414.8</t>
+          <t>15386.8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-709.2</t>
+          <t>179.4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-13.84</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BAYERCROP</t>
+          <t>ASTRAL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>2003</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4587.05</t>
+          <t>1940.7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4587.05</t>
+          <t>13584.9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-952.95</t>
+          <t>-436.1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-17.2</t>
+          <t>-3.11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BERGEPAINT</t>
+          <t>AUROPHARMA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>853.65</t>
+          <t>705.1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>717.95</t>
+          <t>691.8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10051.3</t>
+          <t>14527.8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-1899.8</t>
+          <t>-279.3</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-15.9</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CADILAHC</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>564.4</t>
+          <t>15572.05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>392.35</t>
+          <t>16365.8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8631.7</t>
+          <t>16365.8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3785.1</t>
+          <t>793.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-30.48</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.37</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>BHARTIARTL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>711.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14942.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-303.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CAMS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2435</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2428.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14568.9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-41.1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-0.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DIXON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4313.4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17253.6</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>613.6</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GRASIM</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1779.9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1710</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>15390</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-629.1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-3.93</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>IGL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>522.35</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>392.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23577</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-7764</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-24.77</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>381.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>383.6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IOC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>122.6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>118.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14606.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-473.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>JUBLFOOD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3323.95</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3144.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15720.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-899.5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-5.41</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>854.6</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>15382.8</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-385.2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-2.44</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PGHL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4853.6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4795.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19180.2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-234.2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-1.21</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>213.8</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>203.4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>14238</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-728</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-4.86</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1221.8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1119.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14559.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-1324.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-8.34</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SIEMENS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2437.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2421.3</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>14527.8</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-95.4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SUNPHARMA</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>887.55</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>876.8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14905.6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-182.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-1.21</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.38</t>
         </is>
       </c>
     </row>
